--- a/biology/Médecine/Plan_orbito-méatal/Plan_orbito-méatal.xlsx
+++ b/biology/Médecine/Plan_orbito-méatal/Plan_orbito-méatal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan_orbito-m%C3%A9atal</t>
+          <t>Plan_orbito-méatal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan orbito-méatal (avec ou sans trait d’union) est par convention le plan horizontal de référence en imagerie médicale crânienne (radiologie mais aussi scanner et IRM).
-Il passe par le canthus externe (point le plus externe de la commissure formée par les paupières) et le centre du conduit auditif externe [1],[2].
-En pratique, pour décrire l’incidence d’un cliché crânien on mesure l’angle formé par un point particulier du patient (point d'entrée ou de sortie du rayon directeur) et le plan orbitoméatal[3].
-Il a été choisi comme plan horizontal de référence par les radiologues médicaux parce qu’il est plus facile à repérer sur le vivant que le plan de Francfort des anthropologues. Il correspond à une position de la tête plus fléchie que ce dernier, avec lequel il fait un angle de 10 à 15°[1].
-Au Canada on parle plutôt de ligne de base radiologique ou ligne cantho-méatale ou ligne orbito-méatale pour définir la ligne qui sert de référence à l’établissement du plan[4].
+Il passe par le canthus externe (point le plus externe de la commissure formée par les paupières) et le centre du conduit auditif externe ,.
+En pratique, pour décrire l’incidence d’un cliché crânien on mesure l’angle formé par un point particulier du patient (point d'entrée ou de sortie du rayon directeur) et le plan orbitoméatal.
+Il a été choisi comme plan horizontal de référence par les radiologues médicaux parce qu’il est plus facile à repérer sur le vivant que le plan de Francfort des anthropologues. Il correspond à une position de la tête plus fléchie que ce dernier, avec lequel il fait un angle de 10 à 15°.
+Au Canada on parle plutôt de ligne de base radiologique ou ligne cantho-méatale ou ligne orbito-méatale pour définir la ligne qui sert de référence à l’établissement du plan.
 </t>
         </is>
       </c>
